--- a/RP_ModuleSet001.xlsx
+++ b/RP_ModuleSet001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B777DA27-B710-4037-A94D-6179669CACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A134E-ECA3-4973-B333-78E7BC0C53B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19245" yWindow="4905" windowWidth="14700" windowHeight="13185" xr2:uid="{81F82B1B-DC2B-4AC9-8FF4-D3227F779C49}"/>
+    <workbookView xWindow="-17145" yWindow="2565" windowWidth="16695" windowHeight="15435" xr2:uid="{81F82B1B-DC2B-4AC9-8FF4-D3227F779C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>モジュールID</t>
     <phoneticPr fontId="1"/>
@@ -50,22 +50,6 @@
     <rPh sb="0" eb="3">
       <t>カイテンジク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>z</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -89,10 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>deg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>front方向</t>
     <rPh sb="5" eb="7">
       <t>ホウコウ</t>
@@ -134,35 +114,92 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>robo_ref_coord</t>
+    <t>アタッチモジュールID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>box1</t>
+  </si>
+  <si>
     <t>on</t>
+  </si>
+  <si>
+    <t>box2</t>
+  </si>
+  <si>
+    <t>1: ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID</t>
+    <t>0: attachi_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>on/off</t>
+    <t>2: name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>num</t>
+    <t>18:num</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>box1</t>
+    <t>3:x</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>box2</t>
+    <t>4:y</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アタッチモジュールID</t>
+    <t>5:z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6:x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7:y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9:deg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10:x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11:y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12:z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13:x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14:y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15:z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16:on/off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17:num</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -678,13 +715,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13" style="6" customWidth="1"/>
-    <col min="2" max="3" width="16.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="6" customWidth="1"/>
     <col min="4" max="9" width="3.75" style="6" customWidth="1"/>
     <col min="10" max="10" width="6.25" style="6" customWidth="1"/>
     <col min="11" max="16" width="3.75" style="6" customWidth="1"/>
@@ -694,16 +732,16 @@
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -713,98 +751,102 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="10"/>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="10">
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -819,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="10">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K3" s="10">
         <v>0</v>
@@ -840,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R3" s="10">
         <v>0.2</v>
@@ -853,15 +895,17 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -876,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="11">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K4" s="11">
         <v>0</v>
@@ -897,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R4" s="11">
         <v>0.2</v>
@@ -907,61 +951,25 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>60</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>1</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="S5" s="10">
-        <v>1</v>
-      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
@@ -2415,9 +2423,7 @@
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
-      <c r="C75" s="10">
-        <v>0</v>
-      </c>
+      <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>

--- a/RP_ModuleSet001.xlsx
+++ b/RP_ModuleSet001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B5CB83-2F69-45FB-9C76-D71CD9CF40BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F5319-2281-423F-932E-DB3188441CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15945" yWindow="3660" windowWidth="15960" windowHeight="15435" xr2:uid="{81F82B1B-DC2B-4AC9-8FF4-D3227F779C49}"/>
+    <workbookView xWindow="-16290" yWindow="5565" windowWidth="15960" windowHeight="15435" xr2:uid="{81F82B1B-DC2B-4AC9-8FF4-D3227F779C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>モジュールID</t>
     <phoneticPr fontId="1"/>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndEffector01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -725,7 +737,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -898,7 +910,7 @@
         <v>0.2</v>
       </c>
       <c r="S3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -924,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
         <v>1</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
       </c>
       <c r="J4" s="11">
         <v>0</v>
@@ -957,7 +969,7 @@
         <v>0.2</v>
       </c>
       <c r="S4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -983,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
         <v>1</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
       </c>
       <c r="J5" s="10">
         <v>0</v>
@@ -1016,50 +1028,126 @@
         <v>0.2</v>
       </c>
       <c r="S5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>800</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10">
+        <v>900</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>

--- a/RP_ModuleSet001.xlsx
+++ b/RP_ModuleSet001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F5319-2281-423F-932E-DB3188441CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C1A8C-6124-4320-9C9C-A428BEFB1FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16290" yWindow="5565" windowWidth="15960" windowHeight="15435" xr2:uid="{81F82B1B-DC2B-4AC9-8FF4-D3227F779C49}"/>
+    <workbookView xWindow="19200" yWindow="2970" windowWidth="14775" windowHeight="14445" xr2:uid="{81F82B1B-DC2B-4AC9-8FF4-D3227F779C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>モジュールID</t>
     <phoneticPr fontId="1"/>
@@ -118,110 +118,119 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1: ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0: attachi_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2: name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18:num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5:z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6:x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7:y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9:deg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10:x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11:y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12:z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13:x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14:y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15:z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16:on/off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17:num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LowerBack: 100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB01_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB01_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>on</t>
-  </si>
-  <si>
-    <t>1: ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0: attachi_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2: name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>18:num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3:x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4:y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5:z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6:x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7:y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8:z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9:deg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10:x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11:y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12:z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13:x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14:y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15:z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16:on/off</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>17:num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mod1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mod2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mod3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>on</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EndEffector01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>on</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Target01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB01_z_TA01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB01_z_EE01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -229,6 +238,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +322,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,6 +442,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05229FA9-B7A5-4525-BE2E-12AF7DA0DA9B}">
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -745,14 +781,16 @@
     <col min="1" max="1" width="16.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="6" customWidth="1"/>
-    <col min="4" max="9" width="3.75" style="6" customWidth="1"/>
+    <col min="4" max="6" width="4.875" style="6" customWidth="1"/>
+    <col min="7" max="9" width="3.75" style="6" customWidth="1"/>
     <col min="10" max="10" width="6.25" style="6" customWidth="1"/>
     <col min="11" max="16" width="3.75" style="6" customWidth="1"/>
     <col min="17" max="19" width="9.875" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="6"/>
+    <col min="20" max="20" width="26.875" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -794,90 +832,94 @@
       <c r="S1" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T1" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="10">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>5</v>
-      </c>
-      <c r="F3" s="10">
+        <v>32</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
         <v>1</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
       </c>
       <c r="I3" s="10">
         <v>0</v>
@@ -904,42 +946,45 @@
         <v>0</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="R3" s="10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B4" s="11">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11">
+        <v>33</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>7</v>
+      </c>
+      <c r="F4" s="17">
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="11">
         <v>0</v>
       </c>
       <c r="I4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="11">
         <v>0</v>
@@ -963,32 +1008,33 @@
         <v>0</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="R4" s="11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B5" s="10">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>15</v>
-      </c>
-      <c r="F5" s="10">
+        <v>102</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
       <c r="G5" s="10">
@@ -1022,32 +1068,35 @@
         <v>0</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R5" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B6" s="11">
-        <v>800</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>20</v>
-      </c>
-      <c r="F6" s="11">
+        <v>910</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>7</v>
+      </c>
+      <c r="F6" s="17">
         <v>0</v>
       </c>
       <c r="G6" s="11">
@@ -1081,81 +1130,47 @@
         <v>0</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6" s="11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S6" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10">
-        <v>900</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="10">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>1</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="S7" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1169,14 +1184,15 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1190,14 +1206,15 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -1211,14 +1228,15 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -1232,14 +1250,15 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -1253,14 +1272,15 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1274,14 +1294,15 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1295,14 +1316,15 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-    </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1316,14 +1338,15 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1337,14 +1360,15 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1358,14 +1382,15 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1379,14 +1404,15 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
-    </row>
-    <row r="19" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1400,14 +1426,15 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -1421,14 +1448,15 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
-    </row>
-    <row r="21" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1442,14 +1470,15 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1463,14 +1492,15 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
-    </row>
-    <row r="23" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1484,14 +1514,15 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1505,14 +1536,15 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
-    </row>
-    <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1526,14 +1558,15 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1547,14 +1580,15 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
-    </row>
-    <row r="27" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1568,14 +1602,15 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -1589,14 +1624,15 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
-    </row>
-    <row r="29" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T28" s="11"/>
+    </row>
+    <row r="29" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1610,14 +1646,15 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -1631,14 +1668,15 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
-    </row>
-    <row r="31" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -1652,14 +1690,15 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1673,14 +1712,15 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
-    </row>
-    <row r="33" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -1694,14 +1734,15 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -1715,14 +1756,15 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
-    </row>
-    <row r="35" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T34" s="11"/>
+    </row>
+    <row r="35" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -1736,14 +1778,15 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -1757,14 +1800,15 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
-    </row>
-    <row r="37" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T36" s="11"/>
+    </row>
+    <row r="37" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -1778,14 +1822,15 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
-    </row>
-    <row r="38" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -1799,14 +1844,15 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
-    </row>
-    <row r="39" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -1820,14 +1866,15 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -1841,14 +1888,15 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
-    </row>
-    <row r="41" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T40" s="11"/>
+    </row>
+    <row r="41" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -1862,14 +1910,15 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -1883,14 +1932,15 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
-    </row>
-    <row r="43" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -1904,14 +1954,15 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
-    </row>
-    <row r="44" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -1925,14 +1976,15 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
-    </row>
-    <row r="45" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -1946,14 +1998,15 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
-    </row>
-    <row r="46" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T45" s="10"/>
+    </row>
+    <row r="46" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -1967,14 +2020,15 @@
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
-    </row>
-    <row r="47" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T46" s="11"/>
+    </row>
+    <row r="47" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -1988,14 +2042,15 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
-    </row>
-    <row r="48" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -2009,14 +2064,15 @@
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
-    </row>
-    <row r="49" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T48" s="11"/>
+    </row>
+    <row r="49" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -2030,14 +2086,15 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
-    </row>
-    <row r="50" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T49" s="10"/>
+    </row>
+    <row r="50" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -2051,8 +2108,9 @@
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
-    </row>
-    <row r="51" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T50" s="11"/>
+    </row>
+    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2072,8 +2130,9 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
-    </row>
-    <row r="52" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2093,8 +2152,9 @@
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
-    </row>
-    <row r="53" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T52" s="11"/>
+    </row>
+    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2114,8 +2174,9 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
-    </row>
-    <row r="54" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T53" s="10"/>
+    </row>
+    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2135,8 +2196,9 @@
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
-    </row>
-    <row r="55" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T54" s="11"/>
+    </row>
+    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2156,8 +2218,9 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
-    </row>
-    <row r="56" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T55" s="10"/>
+    </row>
+    <row r="56" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2177,8 +2240,9 @@
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
-    </row>
-    <row r="57" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T56" s="11"/>
+    </row>
+    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2198,8 +2262,9 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
-    </row>
-    <row r="58" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T57" s="10"/>
+    </row>
+    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2219,8 +2284,9 @@
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
-    </row>
-    <row r="59" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T58" s="11"/>
+    </row>
+    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2240,8 +2306,9 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
-    </row>
-    <row r="60" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T59" s="10"/>
+    </row>
+    <row r="60" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2261,8 +2328,9 @@
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
-    </row>
-    <row r="61" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T60" s="11"/>
+    </row>
+    <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2282,8 +2350,9 @@
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
-    </row>
-    <row r="62" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T61" s="10"/>
+    </row>
+    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2303,8 +2372,9 @@
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
-    </row>
-    <row r="63" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T62" s="11"/>
+    </row>
+    <row r="63" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2324,8 +2394,9 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
-    </row>
-    <row r="64" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T63" s="10"/>
+    </row>
+    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2345,8 +2416,9 @@
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
-    </row>
-    <row r="65" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T64" s="11"/>
+    </row>
+    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2366,8 +2438,9 @@
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
-    </row>
-    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T65" s="10"/>
+    </row>
+    <row r="66" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -2387,8 +2460,9 @@
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T66" s="11"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2408,8 +2482,9 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T67" s="10"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -2429,8 +2504,9 @@
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T68" s="11"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2450,8 +2526,9 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T69" s="10"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -2471,8 +2548,9 @@
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
       <c r="S70" s="11"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T70" s="11"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2492,8 +2570,9 @@
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T71" s="10"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -2513,8 +2592,9 @@
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T72" s="11"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2534,8 +2614,9 @@
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T73" s="10"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -2555,8 +2636,9 @@
       <c r="Q74" s="11"/>
       <c r="R74" s="11"/>
       <c r="S74" s="11"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T74" s="11"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -2576,8 +2658,9 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T75" s="10"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -2597,8 +2680,9 @@
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T76" s="11"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -2618,8 +2702,9 @@
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T77" s="10"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -2639,8 +2724,9 @@
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
       <c r="S78" s="11"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T78" s="11"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -2660,8 +2746,9 @@
       <c r="Q79" s="10"/>
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T79" s="10"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -2681,8 +2768,9 @@
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
       <c r="S80" s="11"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T80" s="11"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -2702,8 +2790,9 @@
       <c r="Q81" s="10"/>
       <c r="R81" s="10"/>
       <c r="S81" s="10"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T81" s="10"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -2723,8 +2812,9 @@
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
       <c r="S82" s="11"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T82" s="11"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -2744,8 +2834,9 @@
       <c r="Q83" s="10"/>
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T83" s="10"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -2765,8 +2856,9 @@
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
       <c r="S84" s="11"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T84" s="11"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -2786,8 +2878,9 @@
       <c r="Q85" s="10"/>
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T85" s="10"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -2807,8 +2900,9 @@
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
       <c r="S86" s="11"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T86" s="11"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -2828,8 +2922,9 @@
       <c r="Q87" s="10"/>
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T87" s="10"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -2849,8 +2944,9 @@
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
       <c r="S88" s="11"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T88" s="11"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -2870,8 +2966,9 @@
       <c r="Q89" s="10"/>
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T89" s="10"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -2891,8 +2988,9 @@
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
       <c r="S90" s="11"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T90" s="11"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2912,8 +3010,9 @@
       <c r="Q91" s="10"/>
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T91" s="10"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -2933,8 +3032,9 @@
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
       <c r="S92" s="11"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T92" s="11"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -2954,8 +3054,9 @@
       <c r="Q93" s="10"/>
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T93" s="10"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -2975,8 +3076,9 @@
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
       <c r="S94" s="11"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T94" s="11"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -2996,8 +3098,9 @@
       <c r="Q95" s="10"/>
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T95" s="10"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -3017,8 +3120,9 @@
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
       <c r="S96" s="11"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T96" s="11"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -3038,8 +3142,9 @@
       <c r="Q97" s="10"/>
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T97" s="10"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -3059,8 +3164,9 @@
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
       <c r="S98" s="11"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T98" s="11"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3080,8 +3186,9 @@
       <c r="Q99" s="10"/>
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T99" s="10"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3101,8 +3208,9 @@
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
       <c r="S100" s="11"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T100" s="11"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3122,8 +3230,9 @@
       <c r="Q101" s="10"/>
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T101" s="10"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -3143,6 +3252,7 @@
       <c r="Q102" s="15"/>
       <c r="R102" s="15"/>
       <c r="S102" s="15"/>
+      <c r="T102" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
